--- a/Lab2/Lab2/taskbCalculations.xlsx
+++ b/Lab2/Lab2/taskbCalculations.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>4CE3</t>
+  </si>
+  <si>
+    <t>cd6e9</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEF675A-73E9-4AFE-963B-DF2A52F61200}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,6 +546,124 @@
         <v>841449</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" t="str">
+        <f>DEC2HEX(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:N5" si="2">DEC2HEX(D2)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>1B</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>F3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>2D9</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>88B</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>19A1</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>4CE3</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>E6A9</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>159FD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5" t="str">
+        <f>DEC2HEX(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>4BF</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>3BCD</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>CD08</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>2B3FB</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>9029A</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>CD6E9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>HEX2DEC(G8)</f>
+        <v>841449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>HEX2DEC(G9)</f>
+        <v>19683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab2/Lab2/taskbCalculations.xlsx
+++ b/Lab2/Lab2/taskbCalculations.xlsx
@@ -32,10 +32,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>4CE3</t>
+    <t>cd6e9</t>
   </si>
   <si>
-    <t>cd6e9</t>
+    <t>e6a9</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <f>HEX2DEC(G8)</f>
@@ -657,11 +657,11 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f>HEX2DEC(G9)</f>
-        <v>19683</v>
+        <v>59049</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Lab2/taskbCalculations.xlsx
+++ b/Lab2/Lab2/taskbCalculations.xlsx
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEF675A-73E9-4AFE-963B-DF2A52F61200}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,5 +666,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab2/Lab2/taskbCalculations.xlsx
+++ b/Lab2/Lab2/taskbCalculations.xlsx
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEF675A-73E9-4AFE-963B-DF2A52F61200}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
